--- a/Documents/Design Document.xlsx
+++ b/Documents/Design Document.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17870"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="113">
   <si>
     <t>Database : SecureChat</t>
   </si>
@@ -132,24 +132,15 @@
     <t>Country</t>
   </si>
   <si>
-    <t>FK_USR_Country_TLM_ID</t>
-  </si>
-  <si>
     <t>PhoneNumber</t>
   </si>
   <si>
-    <t>VARCHAR (10)</t>
-  </si>
-  <si>
     <t>EmailID</t>
   </si>
   <si>
     <t>CreatedBy</t>
   </si>
   <si>
-    <t>TBL_LOOKUP_MST (ID)</t>
-  </si>
-  <si>
     <t>TBL_USER (ID)</t>
   </si>
   <si>
@@ -174,9 +165,6 @@
     <t>DATETIME</t>
   </si>
   <si>
-    <t>CURRENT_DATE</t>
-  </si>
-  <si>
     <t>ModifiedBy</t>
   </si>
   <si>
@@ -186,27 +174,15 @@
     <t>ModifiedOn</t>
   </si>
   <si>
-    <t>DF_CreatedON</t>
-  </si>
-  <si>
-    <t>DF_ModifiedOn</t>
-  </si>
-  <si>
     <t>IsActive</t>
   </si>
   <si>
     <t>BOOLEAN</t>
   </si>
   <si>
-    <t>DF_IsActive</t>
-  </si>
-  <si>
     <t>IsDeleted</t>
   </si>
   <si>
-    <t>DF_IsDeleted</t>
-  </si>
-  <si>
     <t>Unique</t>
   </si>
   <si>
@@ -225,9 +201,6 @@
     <t>Verify and Register</t>
   </si>
   <si>
-    <t>Is this field requred?</t>
-  </si>
-  <si>
     <t>Description: This table contains user information</t>
   </si>
   <si>
@@ -300,9 +273,6 @@
     <t>VARCHAR(10)</t>
   </si>
   <si>
-    <t>UK_CountryCode</t>
-  </si>
-  <si>
     <t>Descreption: This table contains the country related data.</t>
   </si>
   <si>
@@ -328,6 +298,69 @@
   </si>
   <si>
     <t>Send message</t>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>UsrPassword</t>
+  </si>
+  <si>
+    <t>TBL_COUNTRY_MST(ID)</t>
+  </si>
+  <si>
+    <t>FK_USR_Country_TCM_ID</t>
+  </si>
+  <si>
+    <t>FK_TCM_CreatedBy_USR_ID</t>
+  </si>
+  <si>
+    <t>FK_TCM_ModifiedBy_USR_ID</t>
+  </si>
+  <si>
+    <t>Table: TBL_LOG</t>
+  </si>
+  <si>
+    <t>TBL_LOG</t>
+  </si>
+  <si>
+    <t>LOG</t>
+  </si>
+  <si>
+    <t>Descreption: This table will maintain the logs of application.</t>
+  </si>
+  <si>
+    <t>ErrorCode</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>ErrorMsg</t>
+  </si>
+  <si>
+    <t>VARCHAR(500)</t>
+  </si>
+  <si>
+    <t>PageName</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>FunctionName</t>
+  </si>
+  <si>
+    <t>LogDateTime</t>
+  </si>
+  <si>
+    <t>FK_LOG_CreatedBy_USR_ID</t>
+  </si>
+  <si>
+    <t>FK_LOG_ModifiedBy_USR_ID</t>
+  </si>
+  <si>
+    <t>ModuleName</t>
   </si>
 </sst>
 </file>
@@ -351,7 +384,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,12 +412,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,7 +556,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -553,15 +580,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -858,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,22 +902,22 @@
     <col min="10" max="10" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>1</v>
       </c>
@@ -911,7 +937,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H5" s="22" t="s">
         <v>7</v>
@@ -923,7 +949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>1</v>
       </c>
@@ -947,7 +973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>2</v>
       </c>
@@ -968,16 +994,13 @@
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
-      <c r="K7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>3</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>34</v>
@@ -994,7 +1017,7 @@
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>4</v>
       </c>
@@ -1012,27 +1035,27 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>5</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21" t="s">
@@ -1041,15 +1064,15 @@
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>6</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>34</v>
@@ -1066,12 +1089,12 @@
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>7</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>11</v>
@@ -1084,42 +1107,40 @@
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>8</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
-      <c r="J13" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J13" s="21"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>9</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>11</v>
@@ -1132,45 +1153,43 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>10</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
-      <c r="J15" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>11</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21" t="s">
@@ -1182,19 +1201,17 @@
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
-      <c r="J16" s="21" t="s">
-        <v>58</v>
-      </c>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>12</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21" t="s">
@@ -1206,20 +1223,18 @@
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
-      <c r="J17" s="21" t="s">
-        <v>60</v>
-      </c>
+      <c r="J17" s="21"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
+        <v>65</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1242,7 +1257,7 @@
         <v>5</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H21" s="22" t="s">
         <v>7</v>
@@ -1303,7 +1318,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>11</v>
@@ -1323,10 +1338,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>32</v>
@@ -1341,7 +1356,7 @@
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1349,15 +1364,15 @@
         <v>5</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="23" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="21"/>
@@ -1371,13 +1386,13 @@
         <v>6</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="21"/>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="23" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="21"/>
@@ -1391,7 +1406,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>11</v>
@@ -1404,10 +1419,10 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1415,31 +1430,29 @@
         <v>8</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
-      <c r="J29" s="21" t="s">
-        <v>54</v>
-      </c>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>9</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>11</v>
@@ -1452,10 +1465,10 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1463,34 +1476,32 @@
         <v>10</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
-      <c r="J31" s="21" t="s">
-        <v>55</v>
-      </c>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>11</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21" t="s">
@@ -1502,19 +1513,17 @@
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
-      <c r="J32" s="21" t="s">
-        <v>58</v>
-      </c>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>12</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="21" t="s">
@@ -1526,18 +1535,16 @@
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
-      <c r="J33" s="21" t="s">
-        <v>60</v>
-      </c>
+      <c r="J33" s="21"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1560,7 +1567,7 @@
         <v>5</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H37" s="22" t="s">
         <v>7</v>
@@ -1600,60 +1607,56 @@
       <c r="A39" s="21">
         <v>2</v>
       </c>
-      <c r="B39" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>86</v>
+      <c r="B39" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="D39" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="E39" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="J39" s="24" t="s">
-        <v>90</v>
+        <v>78</v>
+      </c>
+      <c r="J39" s="23" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
         <v>3</v>
       </c>
-      <c r="B40" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>91</v>
+      <c r="B40" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="D40" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="21"/>
-      <c r="G40" s="21" t="s">
-        <v>13</v>
-      </c>
+      <c r="G40" s="21"/>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
-      <c r="J40" s="24" t="s">
-        <v>92</v>
-      </c>
+      <c r="J40" s="23"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>4</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>11</v>
@@ -1666,10 +1669,10 @@
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
       <c r="I41" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J41" s="21" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -1678,24 +1681,22 @@
         <v>5</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
-      <c r="J42" s="21" t="s">
-        <v>54</v>
-      </c>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
@@ -1703,7 +1704,7 @@
         <v>6</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C43" s="21" t="s">
         <v>11</v>
@@ -1716,10 +1717,10 @@
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
       <c r="I43" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J43" s="21" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -1728,24 +1729,22 @@
         <v>7</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
-      <c r="J44" s="21" t="s">
-        <v>55</v>
-      </c>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="21">
@@ -1753,10 +1752,10 @@
         <v>8</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D45" s="21"/>
       <c r="E45" s="21" t="s">
@@ -1768,9 +1767,7 @@
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
-      <c r="J45" s="21" t="s">
-        <v>58</v>
-      </c>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="21">
@@ -1778,10 +1775,10 @@
         <v>9</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D46" s="21"/>
       <c r="E46" s="21" t="s">
@@ -1793,9 +1790,345 @@
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
-      <c r="J46" s="21" t="s">
-        <v>60</v>
-      </c>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="21">
+        <v>1</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="21">
+        <v>2</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="21">
+        <v>3</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="21">
+        <v>4</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="21">
+        <v>5</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="21">
+        <v>6</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="21">
+        <f>A56+1</f>
+        <v>7</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="21"/>
+      <c r="E57" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="21">
+        <f t="shared" ref="A58:A62" si="1">A57+1</f>
+        <v>8</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J58" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="21">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="21">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J60" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="21">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="21">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="21">
+        <v>1</v>
+      </c>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="21">
+        <v>13</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="21">
+        <v>0</v>
+      </c>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1807,7 +2140,7 @@
   <dimension ref="A2:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1819,10 +2152,10 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1830,10 +2163,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1841,10 +2174,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1852,16 +2185,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
+      <c r="A6" s="21">
+        <v>4</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
@@ -1943,7 +2282,7 @@
   <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1985,13 +2324,13 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="P6">
         <v>3</v>
       </c>
       <c r="Q6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2009,14 +2348,14 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="28"/>
+      <c r="Q8" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="27"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
@@ -2029,7 +2368,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
       <c r="J9" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -2037,14 +2376,14 @@
       <c r="N9" s="5"/>
       <c r="O9" s="6"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="31"/>
+      <c r="Q9" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="30"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
@@ -2111,12 +2450,12 @@
       <c r="N12" s="5"/>
       <c r="O12" s="6"/>
       <c r="P12" s="5"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="37"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="36"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
@@ -2135,14 +2474,14 @@
       <c r="N13" s="5"/>
       <c r="O13" s="6"/>
       <c r="P13" s="5"/>
-      <c r="Q13" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="R13" s="39"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="37"/>
+      <c r="Q13" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="R13" s="38"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="36"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
@@ -2159,12 +2498,12 @@
       <c r="N14" s="5"/>
       <c r="O14" s="6"/>
       <c r="P14" s="5"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="37"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="36"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
@@ -2185,14 +2524,14 @@
       <c r="N15" s="5"/>
       <c r="O15" s="6"/>
       <c r="P15" s="5"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="V15" s="39"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="V15" s="38"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
@@ -2213,12 +2552,12 @@
       <c r="N16" s="5"/>
       <c r="O16" s="6"/>
       <c r="P16" s="5"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="37"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="36"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
@@ -2235,12 +2574,12 @@
       <c r="N17" s="5"/>
       <c r="O17" s="6"/>
       <c r="P17" s="5"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="37"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="36"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
@@ -2259,12 +2598,12 @@
       <c r="N18" s="5"/>
       <c r="O18" s="6"/>
       <c r="P18" s="5"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="37"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="36"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
@@ -2285,14 +2624,14 @@
       <c r="N19" s="5"/>
       <c r="O19" s="6"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="V19" s="39"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="V19" s="38"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
@@ -2371,27 +2710,27 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="18" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H23" s="19"/>
       <c r="J23" s="4"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="18" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="N23" s="18"/>
       <c r="O23" s="19"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="14" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
       <c r="V23" s="19" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
@@ -2409,12 +2748,12 @@
       <c r="N24" s="8"/>
       <c r="O24" s="9"/>
       <c r="P24" s="5"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="34"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="33"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Documents/Design Document.xlsx
+++ b/Documents/Design Document.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="115">
   <si>
     <t>Database : SecureChat</t>
   </si>
@@ -123,9 +123,6 @@
     <t>utf8mb4_unicode_ci</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>VARCHAR (50)</t>
   </si>
   <si>
@@ -303,9 +300,6 @@
     <t>CURRENT_TIMESTAMP</t>
   </si>
   <si>
-    <t>UsrPassword</t>
-  </si>
-  <si>
     <t>TBL_COUNTRY_MST(ID)</t>
   </si>
   <si>
@@ -361,6 +355,18 @@
   </si>
   <si>
     <t>ModuleName</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>VARCHAR (10)</t>
+  </si>
+  <si>
+    <t>VARCHAR (80)</t>
+  </si>
+  <si>
+    <t>EncryptedPassword</t>
   </si>
 </sst>
 </file>
@@ -884,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,12 +915,12 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -937,7 +943,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H5" s="22" t="s">
         <v>7</v>
@@ -981,13 +987,13 @@
         <v>24</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
@@ -996,75 +1002,71 @@
       <c r="J7" s="23"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+      <c r="A8" s="23">
         <v>3</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="21" t="s">
+      <c r="B8" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
+      <c r="E8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
+      <c r="A9" s="23">
         <v>4</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21" t="s">
+      <c r="B9" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>95</v>
-      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>5</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>32</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D10" s="21"/>
       <c r="E10" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="21"/>
-      <c r="G10" s="21" t="s">
-        <v>13</v>
-      </c>
+      <c r="G10" s="21"/>
       <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
+      <c r="I10" s="21" t="s">
+        <v>92</v>
+      </c>
       <c r="J10" s="21" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1072,10 +1074,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>32</v>
@@ -1084,119 +1086,123 @@
         <v>13</v>
       </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="G11" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
+      <c r="J11" s="21" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>7</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="21"/>
+        <v>33</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="E12" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>44</v>
-      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>8</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="21" t="s">
-        <v>92</v>
-      </c>
+      <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
+      <c r="I13" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>9</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="21"/>
+      <c r="F14" s="21" t="s">
+        <v>91</v>
+      </c>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
-      <c r="I14" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="21" t="s">
-        <v>48</v>
-      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>10</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="21" t="s">
-        <v>92</v>
-      </c>
+      <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
+      <c r="I15" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>11</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="21">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
@@ -1208,97 +1214,95 @@
         <v>12</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
+        <v>13</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="21">
+        <v>0</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>74</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B22" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C22" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D22" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E22" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F22" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="22" t="s">
+      <c r="G22" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I22" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="J22" s="22" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
-        <v>1</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>11</v>
@@ -1309,23 +1313,27 @@
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
+      <c r="H23" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="J23" s="21" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
+        <v>2</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>3</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>66</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
@@ -1335,63 +1343,63 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>32</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D25" s="21"/>
       <c r="E25" s="21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F25" s="21"/>
-      <c r="G25" s="21" t="s">
-        <v>13</v>
-      </c>
+      <c r="G25" s="21"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
-      <c r="J25" s="21" t="s">
-        <v>69</v>
-      </c>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="23" t="s">
-        <v>13</v>
+      <c r="E26" s="21" t="s">
+        <v>12</v>
       </c>
       <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
+      <c r="G26" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="J26" s="21" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="21"/>
+        <v>70</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="E27" s="23" t="s">
         <v>13</v>
       </c>
@@ -1403,112 +1411,110 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="21"/>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="23" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
-      <c r="I28" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28" s="21" t="s">
-        <v>62</v>
-      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="21" t="s">
-        <v>92</v>
-      </c>
+      <c r="F29" s="21"/>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="I29" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="21"/>
+      <c r="F30" s="21" t="s">
+        <v>91</v>
+      </c>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
-      <c r="I30" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="J30" s="21" t="s">
-        <v>63</v>
-      </c>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="21" t="s">
-        <v>92</v>
-      </c>
+      <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
+      <c r="I31" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="21">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -1517,127 +1523,123 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F33" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>73</v>
-      </c>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="21">
+        <v>12</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="21">
+        <v>0</v>
+      </c>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B38" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C38" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D38" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E38" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="F38" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H37" s="22" t="s">
+      <c r="G38" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I37" s="22" t="s">
+      <c r="I38" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J37" s="22" t="s">
+      <c r="J38" s="22" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="21">
-        <v>1</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
-        <v>2</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="J39" s="23" t="s">
-        <v>81</v>
+      <c r="H39" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B40" s="23" t="s">
         <v>75</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D40" s="21" t="s">
         <v>32</v>
@@ -1648,121 +1650,124 @@
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="23"/>
+      <c r="I40" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="J40" s="23" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
-        <v>4</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>12</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
-      <c r="I41" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="J41" s="21" t="s">
-        <v>96</v>
-      </c>
+      <c r="I41" s="21"/>
+      <c r="J41" s="23"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
-        <f>A41+1</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="21" t="s">
-        <v>92</v>
-      </c>
+      <c r="F42" s="21"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
+      <c r="I42" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J42" s="21" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
-        <f t="shared" ref="A43:A46" si="0">A42+1</f>
-        <v>6</v>
+        <f>A42+1</f>
+        <v>5</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="21"/>
+      <c r="F43" s="21" t="s">
+        <v>91</v>
+      </c>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
-      <c r="I43" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="J43" s="21" t="s">
-        <v>97</v>
-      </c>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="21">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" ref="A44:A47" si="0">A43+1</f>
+        <v>6</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="21" t="s">
-        <v>92</v>
-      </c>
+      <c r="F44" s="21"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
+      <c r="I44" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J44" s="21" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="21">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D45" s="21"/>
       <c r="E45" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="21">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -1772,123 +1777,124 @@
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="21">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D46" s="21"/>
       <c r="E46" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>98</v>
-      </c>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="21">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="21">
+        <v>0</v>
+      </c>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B51" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C51" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D51" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="22" t="s">
+      <c r="E51" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F50" s="22" t="s">
+      <c r="F51" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G50" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H50" s="22" t="s">
+      <c r="G51" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H51" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I50" s="22" t="s">
+      <c r="I51" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="22" t="s">
+      <c r="J51" s="22" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="21">
-        <v>1</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21" t="s">
+        <v>12</v>
       </c>
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
+      <c r="H52" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
+      <c r="J52" s="21" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D53" s="21" t="s">
         <v>32</v>
@@ -1904,13 +1910,13 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D54" s="21" t="s">
         <v>32</v>
@@ -1926,13 +1932,13 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D55" s="21" t="s">
         <v>32</v>
@@ -1948,13 +1954,13 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D56" s="21" t="s">
         <v>32</v>
@@ -1970,16 +1976,17 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="21">
-        <f>A56+1</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D57" s="21"/>
+        <v>105</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="E57" s="23" t="s">
         <v>13</v>
       </c>
@@ -1991,117 +1998,115 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="21">
-        <f t="shared" ref="A58:A62" si="1">A57+1</f>
-        <v>8</v>
+        <f>A57+1</f>
+        <v>7</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D58" s="21"/>
-      <c r="E58" s="21" t="s">
+      <c r="E58" s="23" t="s">
         <v>13</v>
       </c>
       <c r="F58" s="21"/>
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
-      <c r="I58" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="J58" s="21" t="s">
-        <v>110</v>
-      </c>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="21">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" ref="A59:A63" si="1">A58+1</f>
+        <v>8</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D59" s="21"/>
       <c r="E59" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="21" t="s">
-        <v>92</v>
-      </c>
+      <c r="F59" s="21"/>
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
+      <c r="I59" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J59" s="21" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="21">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D60" s="21"/>
       <c r="E60" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="21"/>
+      <c r="F60" s="21" t="s">
+        <v>91</v>
+      </c>
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
-      <c r="I60" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="J60" s="21" t="s">
-        <v>111</v>
-      </c>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="21">
         <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="21" t="s">
         <v>11</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>46</v>
       </c>
       <c r="D61" s="21"/>
       <c r="E61" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F61" s="21" t="s">
-        <v>92</v>
-      </c>
+      <c r="F61" s="21"/>
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
+      <c r="I61" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J61" s="21" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="21">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D62" s="21"/>
       <c r="E62" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="21">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
@@ -2110,25 +2115,48 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="21">
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D63" s="21"/>
       <c r="E63" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="21"/>
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
       <c r="J63" s="21"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="21">
+        <v>13</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="21">
+        <v>0</v>
+      </c>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2152,10 +2180,10 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>40</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2163,10 +2191,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>42</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2174,10 +2202,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>60</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2185,10 +2213,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>79</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2196,10 +2224,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2324,13 +2352,13 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P6">
         <v>3</v>
       </c>
       <c r="Q6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2349,7 +2377,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R8" s="26"/>
       <c r="S8" s="26"/>
@@ -2368,7 +2396,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
       <c r="J9" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -2377,7 +2405,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R9" s="29"/>
       <c r="S9" s="29"/>
@@ -2475,7 +2503,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R13" s="38"/>
       <c r="S13" s="35"/>
@@ -2529,7 +2557,7 @@
       <c r="S15" s="35"/>
       <c r="T15" s="35"/>
       <c r="U15" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V15" s="38"/>
     </row>
@@ -2629,7 +2657,7 @@
       <c r="S19" s="35"/>
       <c r="T19" s="35"/>
       <c r="U19" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V19" s="38"/>
     </row>
@@ -2710,27 +2738,27 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H23" s="19"/>
       <c r="J23" s="4"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N23" s="18"/>
       <c r="O23" s="19"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
       <c r="V23" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">

--- a/Documents/Design Document.xlsx
+++ b/Documents/Design Document.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="114">
   <si>
     <t>Database : SecureChat</t>
   </si>
@@ -213,9 +213,6 @@
     <t>FK_LKP_ModifiedBy_USR_ID</t>
   </si>
   <si>
-    <t>Table: TBL_USER (Detail Table)</t>
-  </si>
-  <si>
     <t>Table: TBL_LOOKUP (Master table)</t>
   </si>
   <si>
@@ -360,13 +357,13 @@
     <t>Salt</t>
   </si>
   <si>
-    <t>VARCHAR (10)</t>
-  </si>
-  <si>
-    <t>VARCHAR (80)</t>
-  </si>
-  <si>
     <t>EncryptedPassword</t>
+  </si>
+  <si>
+    <t>Table: User (Detail Table)</t>
+  </si>
+  <si>
+    <t>VARCHAR (255)</t>
   </si>
 </sst>
 </file>
@@ -893,7 +890,7 @@
   <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,7 +912,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1006,10 +1003,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>32</v>
@@ -1028,7 +1025,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>113</v>
@@ -1063,10 +1060,10 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="21" t="s">
         <v>92</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1156,7 +1153,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
@@ -1202,7 +1199,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
@@ -1255,14 +1252,14 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1346,7 +1343,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>11</v>
@@ -1366,10 +1363,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="21" t="s">
         <v>66</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>67</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>32</v>
@@ -1384,7 +1381,7 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1392,10 +1389,10 @@
         <v>5</v>
       </c>
       <c r="B27" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>69</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>70</v>
       </c>
       <c r="D27" s="21" t="s">
         <v>32</v>
@@ -1414,7 +1411,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>11</v>
@@ -1468,7 +1465,7 @@
         <v>13</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
@@ -1514,7 +1511,7 @@
         <v>13</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -1567,12 +1564,12 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1636,10 +1633,10 @@
         <v>2</v>
       </c>
       <c r="B40" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="23" t="s">
         <v>75</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>76</v>
       </c>
       <c r="D40" s="21" t="s">
         <v>32</v>
@@ -1651,10 +1648,10 @@
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
       <c r="I40" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J40" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -1662,10 +1659,10 @@
         <v>3</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D41" s="21" t="s">
         <v>32</v>
@@ -1700,7 +1697,7 @@
         <v>38</v>
       </c>
       <c r="J42" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -1719,7 +1716,7 @@
         <v>13</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -1748,7 +1745,7 @@
         <v>38</v>
       </c>
       <c r="J44" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -1767,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -1822,12 +1819,12 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -1891,10 +1888,10 @@
         <v>2</v>
       </c>
       <c r="B53" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="21" t="s">
         <v>100</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>101</v>
       </c>
       <c r="D53" s="21" t="s">
         <v>32</v>
@@ -1913,10 +1910,10 @@
         <v>3</v>
       </c>
       <c r="B54" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="21" t="s">
         <v>102</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>103</v>
       </c>
       <c r="D54" s="21" t="s">
         <v>32</v>
@@ -1935,10 +1932,10 @@
         <v>4</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D55" s="21" t="s">
         <v>32</v>
@@ -1957,10 +1954,10 @@
         <v>5</v>
       </c>
       <c r="B56" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="21" t="s">
         <v>104</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>105</v>
       </c>
       <c r="D56" s="21" t="s">
         <v>32</v>
@@ -1979,10 +1976,10 @@
         <v>6</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D57" s="21" t="s">
         <v>32</v>
@@ -2002,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C58" s="21" t="s">
         <v>45</v>
@@ -2039,7 +2036,7 @@
         <v>38</v>
       </c>
       <c r="J59" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2058,7 +2055,7 @@
         <v>13</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
@@ -2087,7 +2084,7 @@
         <v>38</v>
       </c>
       <c r="J61" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -2106,7 +2103,7 @@
         <v>13</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
@@ -2213,10 +2210,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>78</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2224,10 +2221,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>97</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2358,7 +2355,7 @@
         <v>3</v>
       </c>
       <c r="Q6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2377,7 +2374,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R8" s="26"/>
       <c r="S8" s="26"/>
@@ -2405,7 +2402,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R9" s="29"/>
       <c r="S9" s="29"/>
@@ -2503,7 +2500,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R13" s="38"/>
       <c r="S13" s="35"/>
@@ -2557,7 +2554,7 @@
       <c r="S15" s="35"/>
       <c r="T15" s="35"/>
       <c r="U15" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V15" s="38"/>
     </row>
@@ -2657,7 +2654,7 @@
       <c r="S19" s="35"/>
       <c r="T19" s="35"/>
       <c r="U19" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V19" s="38"/>
     </row>
@@ -2751,14 +2748,14 @@
       <c r="O23" s="19"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
       <c r="V23" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">

--- a/Documents/Design Document.xlsx
+++ b/Documents/Design Document.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="119">
   <si>
     <t>Database : SecureChat</t>
   </si>
@@ -364,6 +364,21 @@
   </si>
   <si>
     <t>VARCHAR (255)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table: Challenge </t>
+  </si>
+  <si>
+    <t>Description: Store Challenge required for Remote Login</t>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+  </si>
+  <si>
+    <t>Challenge</t>
+  </si>
+  <si>
+    <t>ChlngTimeStamp</t>
   </si>
 </sst>
 </file>
@@ -887,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2154,6 +2169,112 @@
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
       <c r="J64" s="21"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H68" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I68" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J68" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="21">
+        <v>1</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="21">
+        <v>2</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="21">
+        <v>3</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D71" s="21"/>
+      <c r="E71" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Design Document.xlsx
+++ b/Documents/Design Document.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="124">
   <si>
     <t>Database : SecureChat</t>
   </si>
@@ -379,6 +379,21 @@
   </si>
   <si>
     <t>ChlngTimeStamp</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Don’t consider right now</t>
+  </si>
+  <si>
+    <t>VerificationCode</t>
+  </si>
+  <si>
+    <t>IsVerified</t>
   </si>
 </sst>
 </file>
@@ -402,7 +417,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,6 +451,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,7 +595,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -614,6 +635,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -902,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,22 +942,22 @@
     <col min="10" max="10" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>1</v>
       </c>
@@ -967,7 +989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>1</v>
       </c>
@@ -991,12 +1013,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>2</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>24</v>
+      <c r="B7" s="21" t="s">
+        <v>119</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>33</v>
@@ -1004,218 +1026,215 @@
       <c r="D7" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>3</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>110</v>
+      <c r="B8" s="21" t="s">
+        <v>120</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="39">
         <v>4</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="23" t="s">
+      <c r="B9" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>5</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21" t="s">
+      <c r="B10" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>6</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="21" t="s">
+      <c r="B11" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>7</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>32</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D12" s="21"/>
       <c r="E12" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I12" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>8</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="21"/>
+        <v>33</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="E13" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="G13" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" s="21"/>
-      <c r="I13" s="21" t="s">
-        <v>38</v>
-      </c>
+      <c r="I13" s="21"/>
       <c r="J13" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>9</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="21"/>
+        <v>33</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="E14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>90</v>
-      </c>
+      <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>10</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="21"/>
+        <v>122</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="E15" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>11</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="21" t="s">
-        <v>90</v>
-      </c>
+      <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
@@ -1223,217 +1242,227 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
+        <f>A16+1</f>
         <v>12</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="21">
-        <v>1</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F17" s="21"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
+      <c r="I17" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
+      <c r="A18" s="21">
+        <f t="shared" ref="A18:A22" si="0">A17+1</f>
         <v>13</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="21">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
     </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="21">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="21">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="21">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="21">
+        <v>0</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B26" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C26" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D26" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E26" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F26" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G26" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H26" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="22" t="s">
+      <c r="J26" s="22" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="21">
-        <v>1</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
-        <v>2</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="21">
-        <v>3</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="21">
-        <v>4</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21" t="s">
+        <v>12</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
+      <c r="H27" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="J27" s="21" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="21"/>
-      <c r="E28" s="23" t="s">
-        <v>13</v>
+      <c r="E28" s="21" t="s">
+        <v>12</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -1443,10 +1472,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>11</v>
@@ -1458,76 +1487,72 @@
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
-      <c r="I29" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J29" s="21" t="s">
-        <v>61</v>
-      </c>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="21"/>
+        <v>66</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="E30" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="G30" s="21"/>
+        <v>12</v>
+      </c>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="J30" s="21" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="23" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
-      <c r="I31" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31" s="21" t="s">
-        <v>62</v>
-      </c>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D32" s="21"/>
-      <c r="E32" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>90</v>
-      </c>
+      <c r="E32" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="21"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
@@ -1535,466 +1560,470 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
+        <v>7</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="21" t="s">
         <v>11</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>50</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="21">
-        <v>1</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F33" s="21"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
+      <c r="I33" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D34" s="21"/>
       <c r="E34" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="21">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
     </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="21">
+        <v>9</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="21">
+        <v>10</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="21">
+        <v>11</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="21">
+        <v>1</v>
+      </c>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="21">
+        <v>12</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="21">
+        <v>0</v>
+      </c>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B42" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C42" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D42" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E42" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F42" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="G42" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="H38" s="22" t="s">
+      <c r="H42" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I38" s="22" t="s">
+      <c r="I42" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="22" t="s">
+      <c r="J42" s="22" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="21">
-        <v>1</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="21">
-        <v>2</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="J40" s="23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="21">
-        <v>3</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="23"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="21">
-        <v>4</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J42" s="21" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
-        <f>A42+1</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>90</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F43" s="21"/>
       <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
+      <c r="H43" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
+      <c r="J43" s="21" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="21">
-        <f t="shared" ref="A44:A47" si="0">A43+1</f>
-        <v>6</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>12</v>
       </c>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
       <c r="I44" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J44" s="21" t="s">
-        <v>94</v>
+        <v>76</v>
+      </c>
+      <c r="J44" s="23" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="21">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>90</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="21"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
+      <c r="J45" s="23"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D46" s="21"/>
       <c r="E46" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="21">
-        <v>1</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F46" s="21"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
+      <c r="I46" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J46" s="21" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="21">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>A46+1</f>
+        <v>5</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D47" s="21"/>
       <c r="E47" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="21">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
     </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="21">
+        <f t="shared" ref="A48:A51" si="1">A47+1</f>
+        <v>6</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J48" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="21">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="21">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="21">
+        <v>1</v>
+      </c>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="21">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="21">
+        <v>0</v>
+      </c>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B55" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C55" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D55" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="22" t="s">
+      <c r="E55" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="F55" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="22" t="s">
+      <c r="G55" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="H51" s="22" t="s">
+      <c r="H55" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I51" s="22" t="s">
+      <c r="I55" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J51" s="22" t="s">
+      <c r="J55" s="22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="21">
-        <v>1</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="21">
-        <v>2</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="21">
-        <v>3</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="21">
-        <v>4</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D55" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D56" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21" t="s">
+        <v>12</v>
       </c>
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
+      <c r="H56" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
+      <c r="J56" s="21" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D57" s="21" t="s">
         <v>32</v>
@@ -2010,16 +2039,17 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="21">
-        <f>A57+1</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D58" s="21"/>
+        <v>102</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="E58" s="23" t="s">
         <v>13</v>
       </c>
@@ -2031,47 +2061,43 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="21">
-        <f t="shared" ref="A59:A63" si="1">A58+1</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="23" t="s">
         <v>13</v>
       </c>
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
-      <c r="I59" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J59" s="21" t="s">
-        <v>107</v>
-      </c>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="21">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="21" t="s">
-        <v>90</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="21"/>
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
@@ -2079,47 +2105,42 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="21">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="23" t="s">
         <v>13</v>
       </c>
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
-      <c r="I61" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J61" s="21" t="s">
-        <v>108</v>
-      </c>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="21">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f>A61+1</f>
+        <v>7</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="C62" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D62" s="21"/>
-      <c r="E62" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="21" t="s">
-        <v>90</v>
-      </c>
+      <c r="E62" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="21"/>
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
       <c r="I62" s="21"/>
@@ -2127,154 +2148,250 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="21">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" ref="A63:A67" si="2">A62+1</f>
+        <v>8</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D63" s="21"/>
       <c r="E63" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="21">
-        <v>1</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F63" s="21"/>
       <c r="G63" s="21"/>
       <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
+      <c r="I63" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J63" s="21" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="21">
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D64" s="21"/>
       <c r="E64" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="21">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
       <c r="J64" s="21"/>
     </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="21">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J65" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="21">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="21">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="21">
+        <v>1</v>
+      </c>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="21">
+        <v>13</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="21">
+        <v>0</v>
+      </c>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="22" t="s">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B72" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C72" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D68" s="22" t="s">
+      <c r="D72" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E68" s="22" t="s">
+      <c r="E72" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F68" s="22" t="s">
+      <c r="F72" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G68" s="22" t="s">
+      <c r="G72" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="H68" s="22" t="s">
+      <c r="H72" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I68" s="22" t="s">
+      <c r="I72" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J68" s="22" t="s">
+      <c r="J72" s="22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="21">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="21">
         <v>1</v>
       </c>
-      <c r="B69" s="21" t="s">
+      <c r="B73" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C73" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D69" s="21" t="s">
+      <c r="D73" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E69" s="23" t="s">
+      <c r="E73" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="21">
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="21">
         <v>2</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="B74" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C74" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D70" s="21" t="s">
+      <c r="D74" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E70" s="23" t="s">
+      <c r="E74" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="21">
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="21">
         <v>3</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B75" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C71" s="23" t="s">
+      <c r="C75" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D71" s="21"/>
-      <c r="E71" s="23" t="s">
+      <c r="D75" s="21"/>
+      <c r="E75" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Design Document.xlsx
+++ b/Documents/Design Document.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Database Design" sheetId="1" r:id="rId1"/>
-    <sheet name="Table Name and Acronym" sheetId="4" r:id="rId2"/>
-    <sheet name="UI Design" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="Initial UI Design" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="86">
   <si>
     <t>Database : SecureChat</t>
   </si>
@@ -138,21 +137,6 @@
     <t>CreatedBy</t>
   </si>
   <si>
-    <t>TBL_USER (ID)</t>
-  </si>
-  <si>
-    <t>Table Name</t>
-  </si>
-  <si>
-    <t>Acronym</t>
-  </si>
-  <si>
-    <t>TBL_USER</t>
-  </si>
-  <si>
-    <t>USR</t>
-  </si>
-  <si>
     <t>FK_USR_CreatedBy_USR_ID</t>
   </si>
   <si>
@@ -201,75 +185,6 @@
     <t>Description: This table contains user information</t>
   </si>
   <si>
-    <t>TBL_LOOKUP</t>
-  </si>
-  <si>
-    <t>LKP</t>
-  </si>
-  <si>
-    <t>FK_LKP_CreatedBy_USR_ID</t>
-  </si>
-  <si>
-    <t>FK_LKP_ModifiedBy_USR_ID</t>
-  </si>
-  <si>
-    <t>Table: TBL_LOOKUP (Master table)</t>
-  </si>
-  <si>
-    <t>ParentKey</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>VARCHAR(30)</t>
-  </si>
-  <si>
-    <t>UK_Code</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>VARCHAR(250)</t>
-  </si>
-  <si>
-    <t>SortOrder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table: TBL_COUNTRY_MST (Master Table) </t>
-  </si>
-  <si>
-    <t>Description: This table contains data which contains fixed Hierarchy Structure or fixed configuration data to maintain domain integrity</t>
-  </si>
-  <si>
-    <t>CountryCode</t>
-  </si>
-  <si>
-    <t>ISOCode</t>
-  </si>
-  <si>
-    <t>VARCHAR(3)</t>
-  </si>
-  <si>
-    <t>TBL_LOOKUP (Code)</t>
-  </si>
-  <si>
-    <t>TBL_COUNTRY_MST</t>
-  </si>
-  <si>
-    <t>TCM</t>
-  </si>
-  <si>
-    <t>FK_TCM_ISOCode_LKP_Code</t>
-  </si>
-  <si>
-    <t>VARCHAR(10)</t>
-  </si>
-  <si>
-    <t>Descreption: This table contains the country related data.</t>
-  </si>
-  <si>
     <t>Chat Screen</t>
   </si>
   <si>
@@ -297,63 +212,6 @@
     <t>CURRENT_TIMESTAMP</t>
   </si>
   <si>
-    <t>TBL_COUNTRY_MST(ID)</t>
-  </si>
-  <si>
-    <t>FK_USR_Country_TCM_ID</t>
-  </si>
-  <si>
-    <t>FK_TCM_CreatedBy_USR_ID</t>
-  </si>
-  <si>
-    <t>FK_TCM_ModifiedBy_USR_ID</t>
-  </si>
-  <si>
-    <t>Table: TBL_LOG</t>
-  </si>
-  <si>
-    <t>TBL_LOG</t>
-  </si>
-  <si>
-    <t>LOG</t>
-  </si>
-  <si>
-    <t>Descreption: This table will maintain the logs of application.</t>
-  </si>
-  <si>
-    <t>ErrorCode</t>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-  </si>
-  <si>
-    <t>ErrorMsg</t>
-  </si>
-  <si>
-    <t>VARCHAR(500)</t>
-  </si>
-  <si>
-    <t>PageName</t>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-  </si>
-  <si>
-    <t>FunctionName</t>
-  </si>
-  <si>
-    <t>LogDateTime</t>
-  </si>
-  <si>
-    <t>FK_LOG_CreatedBy_USR_ID</t>
-  </si>
-  <si>
-    <t>FK_LOG_ModifiedBy_USR_ID</t>
-  </si>
-  <si>
-    <t>ModuleName</t>
-  </si>
-  <si>
     <t>Salt</t>
   </si>
   <si>
@@ -366,34 +224,61 @@
     <t>VARCHAR (255)</t>
   </si>
   <si>
-    <t xml:space="preserve">Table: Challenge </t>
-  </si>
-  <si>
-    <t>Description: Store Challenge required for Remote Login</t>
-  </si>
-  <si>
     <t>VARCHAR(255)</t>
   </si>
   <si>
-    <t>Challenge</t>
-  </si>
-  <si>
-    <t>ChlngTimeStamp</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
     <t>LastName</t>
   </si>
   <si>
-    <t>Don’t consider right now</t>
-  </si>
-  <si>
     <t>VerificationCode</t>
   </si>
   <si>
     <t>IsVerified</t>
+  </si>
+  <si>
+    <t>not in use</t>
+  </si>
+  <si>
+    <t>Table: message</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>SendOn</t>
+  </si>
+  <si>
+    <t>FK_MSG_From_USR_ID</t>
+  </si>
+  <si>
+    <t>FK_MSG_To_USR_ID</t>
+  </si>
+  <si>
+    <t>VARCHAR(10000)</t>
+  </si>
+  <si>
+    <t>TINYINT</t>
+  </si>
+  <si>
+    <t>Pending :1 and Received : 2</t>
+  </si>
+  <si>
+    <t>User (ID)</t>
   </si>
 </sst>
 </file>
@@ -595,7 +480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -620,7 +505,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -924,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,12 +833,12 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -977,7 +861,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H5" s="22" t="s">
         <v>7</v>
@@ -1018,7 +902,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>33</v>
@@ -1040,7 +924,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>33</v>
@@ -1058,28 +942,28 @@
       <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="39">
+      <c r="A9" s="38">
         <v>4</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
       <c r="K9" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1087,10 +971,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>32</v>
@@ -1109,10 +993,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>32</v>
@@ -1143,12 +1027,8 @@
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>92</v>
-      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
@@ -1173,7 +1053,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1203,10 +1083,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>32</v>
@@ -1225,10 +1105,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21" t="s">
@@ -1240,7 +1120,7 @@
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <f>A16+1</f>
         <v>12</v>
@@ -1259,42 +1139,42 @@
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <f t="shared" ref="A18:A22" si="0">A17+1</f>
         <v>13</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>11</v>
@@ -1307,45 +1187,45 @@
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21" t="s">
@@ -1359,16 +1239,16 @@
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21" t="s">
@@ -1382,56 +1262,74 @@
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B25" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C25" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D25" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E25" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F25" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="H26" s="22" t="s">
+      <c r="G25" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="22" t="s">
+      <c r="I25" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J26" s="22" t="s">
+      <c r="J25" s="22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="21">
+        <v>1</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
-        <v>1</v>
+        <f>A26+1</f>
+        <v>2</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>11</v>
@@ -1442,20 +1340,21 @@
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
-      <c r="H27" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21" t="s">
+        <v>85</v>
+      </c>
       <c r="J27" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
-        <v>2</v>
+        <f t="shared" ref="A28:A32" si="1">A27+1</f>
+        <v>3</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>11</v>
@@ -1467,22 +1366,29 @@
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I28" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="21"/>
+        <v>76</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="E29" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
@@ -1490,41 +1396,40 @@
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="21"/>
-      <c r="G30" s="21" t="s">
-        <v>13</v>
-      </c>
+      <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
-      <c r="J30" s="21" t="s">
+      <c r="J30" s="21"/>
+      <c r="K30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="21">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="21">
-        <v>5</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>69</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>32</v>
@@ -1538,860 +1443,28 @@
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>11</v>
+        <v>79</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="21"/>
+      <c r="F32" s="21" t="s">
+        <v>62</v>
+      </c>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="21">
-        <v>7</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J33" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="21">
-        <v>8</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="21">
-        <v>9</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J35" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="21">
-        <v>10</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="21">
-        <v>11</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="21">
-        <v>1</v>
-      </c>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="21">
-        <v>12</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="21">
-        <v>0</v>
-      </c>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="H42" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="21">
-        <v>1</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="21">
-        <v>2</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="J44" s="23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="21">
-        <v>3</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="23"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="21">
-        <v>4</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J46" s="21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="21">
-        <f>A46+1</f>
-        <v>5</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="21">
-        <f t="shared" ref="A48:A51" si="1">A47+1</f>
-        <v>6</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J48" s="21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="21">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="21">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="21">
-        <v>1</v>
-      </c>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="21">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="21">
-        <v>0</v>
-      </c>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G55" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="H55" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I55" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="J55" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="21">
-        <v>1</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="21">
-        <v>2</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="21">
-        <v>3</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E58" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="21">
-        <v>4</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E59" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="21">
-        <v>5</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D60" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E60" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="21">
-        <v>6</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D61" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E61" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="21">
-        <f>A61+1</f>
-        <v>7</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D62" s="21"/>
-      <c r="E62" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="21">
-        <f t="shared" ref="A63:A67" si="2">A62+1</f>
-        <v>8</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J63" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="21">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="21">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J65" s="21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="21">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="21">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="B67" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="21">
-        <v>1</v>
-      </c>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="21">
-        <v>13</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C68" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="21">
-        <v>0</v>
-      </c>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B72" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F72" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="H72" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I72" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="J72" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="21">
-        <v>1</v>
-      </c>
-      <c r="B73" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C73" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="D73" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E73" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="21">
-        <v>2</v>
-      </c>
-      <c r="B74" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D74" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E74" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="21">
-        <v>3</v>
-      </c>
-      <c r="B75" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C75" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D75" s="21"/>
-      <c r="E75" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2400,152 +1473,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
-        <v>1</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
-        <v>2</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
-        <v>3</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
-        <v>4</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2587,13 +1518,13 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="P6">
         <v>3</v>
       </c>
       <c r="Q6" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2611,14 +1542,14 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="27"/>
+      <c r="Q8" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="26"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
@@ -2631,7 +1562,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
       <c r="J9" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -2639,14 +1570,14 @@
       <c r="N9" s="5"/>
       <c r="O9" s="6"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="30"/>
+      <c r="Q9" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="29"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
@@ -2713,12 +1644,12 @@
       <c r="N12" s="5"/>
       <c r="O12" s="6"/>
       <c r="P12" s="5"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="36"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="35"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
@@ -2737,14 +1668,14 @@
       <c r="N13" s="5"/>
       <c r="O13" s="6"/>
       <c r="P13" s="5"/>
-      <c r="Q13" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="R13" s="38"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="36"/>
+      <c r="Q13" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="R13" s="37"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="35"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
@@ -2761,12 +1692,12 @@
       <c r="N14" s="5"/>
       <c r="O14" s="6"/>
       <c r="P14" s="5"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="36"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="35"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
@@ -2787,14 +1718,14 @@
       <c r="N15" s="5"/>
       <c r="O15" s="6"/>
       <c r="P15" s="5"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="V15" s="38"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="V15" s="37"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
@@ -2815,12 +1746,12 @@
       <c r="N16" s="5"/>
       <c r="O16" s="6"/>
       <c r="P16" s="5"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="36"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="35"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
@@ -2837,12 +1768,12 @@
       <c r="N17" s="5"/>
       <c r="O17" s="6"/>
       <c r="P17" s="5"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="36"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="35"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
@@ -2861,12 +1792,12 @@
       <c r="N18" s="5"/>
       <c r="O18" s="6"/>
       <c r="P18" s="5"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="36"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="35"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
@@ -2887,14 +1818,14 @@
       <c r="N19" s="5"/>
       <c r="O19" s="6"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="V19" s="38"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="V19" s="37"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
@@ -2973,27 +1904,27 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H23" s="19"/>
       <c r="J23" s="4"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N23" s="18"/>
       <c r="O23" s="19"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="14" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
       <c r="V23" s="19" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
@@ -3011,12 +1942,12 @@
       <c r="N24" s="8"/>
       <c r="O24" s="9"/>
       <c r="P24" s="5"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="33"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="32"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3026,7 +1957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
